--- a/reporting.xlsx
+++ b/reporting.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,8 @@
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -436,12 +438,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -451,9 +453,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19:43</t>
-        </is>
-      </c>
+          <t>14:22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,6 +485,16 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Today%∆</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TodayVal∆</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,10 +509,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>260.3</v>
+        <v>259.935</v>
       </c>
       <c r="E4" t="n">
-        <v>2603</v>
+        <v>2599.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.644191868615962</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +534,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.57</v>
+        <v>40.04</v>
       </c>
       <c r="E5" t="n">
-        <v>9892.5</v>
+        <v>10010</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>117.718153967784</v>
       </c>
     </row>
     <row r="6">
@@ -533,10 +559,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>79.45999999999999</v>
+        <v>82.64</v>
       </c>
       <c r="E6" t="n">
-        <v>15892</v>
+        <v>16528</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>635.6923076923085</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +584,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.2</v>
+        <v>57.84</v>
       </c>
       <c r="E7" t="n">
-        <v>174.6</v>
+        <v>173.52</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.082535721473135</v>
       </c>
     </row>
     <row r="8">
@@ -571,10 +609,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>169.355</v>
+        <v>170.17</v>
       </c>
       <c r="E8" t="n">
-        <v>2032.26</v>
+        <v>2042.04</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.754968152866013</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +628,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>379.11</v>
+        <v>387.46</v>
       </c>
       <c r="E9" t="n">
-        <v>12131.52</v>
+        <v>16273.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>350.3063013698629</v>
       </c>
     </row>
     <row r="10">
@@ -609,10 +659,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.69</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1533.8</v>
+        <v>1543</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.202783300198917</v>
       </c>
     </row>
     <row r="11">
@@ -628,10 +684,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>78.73</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>29130.1</v>
+        <v>28804.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-326.2645631067971</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +709,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.9</v>
+        <v>16.87</v>
       </c>
       <c r="E12" t="n">
-        <v>844.9999999999999</v>
+        <v>843.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.521037868162693</v>
       </c>
     </row>
     <row r="13">
@@ -666,10 +734,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>28.5</v>
+        <v>28.89</v>
       </c>
       <c r="E13" t="n">
-        <v>399</v>
+        <v>404.46</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.466214856466422</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +759,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>119.08</v>
+        <v>122.68</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.8</v>
+        <v>1226.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.9632692681032</v>
       </c>
     </row>
     <row r="15">
@@ -704,10 +784,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>17.73</v>
+        <v>17.99</v>
       </c>
       <c r="E15" t="n">
-        <v>425.52</v>
+        <v>431.76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.254924608258591</v>
       </c>
     </row>
     <row r="16">
@@ -723,10 +809,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.65</v>
+        <v>33.27</v>
       </c>
       <c r="E16" t="n">
-        <v>32.65</v>
+        <v>33.27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6203434739941116</v>
       </c>
     </row>
     <row r="17">
@@ -742,10 +834,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.15</v>
+        <v>15.43</v>
       </c>
       <c r="E17" t="n">
-        <v>151.5</v>
+        <v>154.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.802700049091783</v>
       </c>
     </row>
     <row r="18">
@@ -761,10 +859,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.62</v>
+        <v>7.8</v>
       </c>
       <c r="E18" t="n">
-        <v>762</v>
+        <v>780</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17.98358733880423</v>
       </c>
     </row>
     <row r="19">
@@ -780,10 +884,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>249.88</v>
+        <v>257.69</v>
       </c>
       <c r="E19" t="n">
-        <v>2498.8</v>
+        <v>2576.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>78.20902744109389</v>
       </c>
     </row>
     <row r="20">
@@ -799,10 +909,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>152.18</v>
+        <v>157.14</v>
       </c>
       <c r="E20" t="n">
-        <v>1521.8</v>
+        <v>1571.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>49.61034282393962</v>
       </c>
     </row>
     <row r="21">
@@ -818,10 +934,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3101.55</v>
+        <v>3084.02</v>
       </c>
       <c r="E21" t="n">
-        <v>6203.1</v>
+        <v>6168.04</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-35.35937644574096</v>
       </c>
     </row>
     <row r="22">
@@ -837,10 +959,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>15.29</v>
+        <v>15.04</v>
       </c>
       <c r="E22" t="n">
-        <v>3058</v>
+        <v>3008</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-50.1537210248066</v>
       </c>
     </row>
     <row r="23">
@@ -856,10 +984,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>239.02</v>
+        <v>239.73</v>
       </c>
       <c r="E23" t="n">
-        <v>2390.2</v>
+        <v>2397.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.170388833499146</v>
       </c>
     </row>
     <row r="24">
@@ -869,7 +1003,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8770.93</v>
+        <v>14925.93</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -878,7 +1012,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>101639.08</v>
+        <v>112495.39</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="G24" t="n">
+        <v>908.7298871406747</v>
       </c>
     </row>
   </sheetData>
